--- a/biology/Médecine/Syndrome_d'Andermann/Syndrome_d'Andermann.xlsx
+++ b/biology/Médecine/Syndrome_d'Andermann/Syndrome_d'Andermann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Andermann</t>
+          <t>Syndrome_d'Andermann</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome d'Andermann est une maladie génétique ne se rencontrant presque exclusivement qu'au Québec, dans la population d'origine française, et plus particulièrement dans la population du Saguenay–Lac-Saint-Jean. Cette répartition particulière est due à un effet fondateur.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Andermann</t>
+          <t>Syndrome_d'Andermann</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Nicolas Dupré, Heidi C Howard, Guy A Rouleau, Hereditary Motor and Sensory Neuropathy with Agenesis of the Corpus Callosum in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Nicolas Dupré, Heidi C Howard, Guy A Rouleau, Hereditary Motor and Sensory Neuropathy with Agenesis of the Corpus Callosum in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006
 </t>
         </is>
       </c>
